--- a/KT2/KT2.1/KT2.1.2 Genormaliseerd Databaseontwerp/Genormaliseerde Databaseontwerp v1.0.0.xlsx
+++ b/KT2/KT2.1/KT2.1.2 Genormaliseerd Databaseontwerp/Genormaliseerde Databaseontwerp v1.0.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_11_Proef_PVB_Tim_Kenley\Periode_11_Proef_PVB_Tim_Kenley\KT2\KT2.1\KT2.1.2 Genormaliseerd Databaseontwerp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\_School\_Leerjaar 3\_KT123\Periode_11_Proef_PVB_Tim_Kenley\KT2\KT2.1\KT2.1.2 Genormaliseerd Databaseontwerp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4632" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0e Normaalvorm" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -43,55 +43,7 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Startingtimes</t>
-  </si>
-  <si>
-    <t>Closingtimes</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Addres</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>UserId</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <t>•Addres</t>
-  </si>
-  <si>
-    <t>•Place</t>
-  </si>
-  <si>
-    <t>•Startingtimes</t>
-  </si>
-  <si>
-    <t>•Closingtimes</t>
   </si>
   <si>
     <t>••Question</t>
@@ -147,11 +99,26 @@
   <si>
     <t>tbl_Recents (R33)</t>
   </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>•Keyword</t>
+  </si>
+  <si>
+    <t>•Image</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -259,7 +227,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2"/>
+        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -306,7 +280,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Rechte verbindingslijn met pijl 4"/>
+        <xdr:cNvPr id="5" name="Rechte verbindingslijn met pijl 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -353,7 +333,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Rechte verbindingslijn 6"/>
+        <xdr:cNvPr id="7" name="Rechte verbindingslijn 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -397,7 +383,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Rechte verbindingslijn met pijl 9"/>
+        <xdr:cNvPr id="10" name="Rechte verbindingslijn met pijl 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -444,7 +436,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Rechte verbindingslijn met pijl 11"/>
+        <xdr:cNvPr id="12" name="Rechte verbindingslijn met pijl 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -491,7 +489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Rechte verbindingslijn met pijl 12"/>
+        <xdr:cNvPr id="13" name="Rechte verbindingslijn met pijl 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -538,7 +542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Rechte verbindingslijn 13"/>
+        <xdr:cNvPr id="14" name="Rechte verbindingslijn 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -582,7 +592,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Rechte verbindingslijn met pijl 14"/>
+        <xdr:cNvPr id="15" name="Rechte verbindingslijn met pijl 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -629,7 +645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Rechte verbindingslijn met pijl 15"/>
+        <xdr:cNvPr id="16" name="Rechte verbindingslijn met pijl 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -676,7 +698,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Rechte verbindingslijn met pijl 16"/>
+        <xdr:cNvPr id="17" name="Rechte verbindingslijn met pijl 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -723,7 +751,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Rechte verbindingslijn 17"/>
+        <xdr:cNvPr id="18" name="Rechte verbindingslijn 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -767,7 +801,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Rechte verbindingslijn met pijl 18"/>
+        <xdr:cNvPr id="19" name="Rechte verbindingslijn met pijl 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -814,7 +854,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Rechte verbindingslijn met pijl 20"/>
+        <xdr:cNvPr id="21" name="Rechte verbindingslijn met pijl 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -861,7 +907,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21"/>
+        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -908,7 +960,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22"/>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -955,7 +1013,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Rechte verbindingslijn met pijl 23"/>
+        <xdr:cNvPr id="24" name="Rechte verbindingslijn met pijl 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1002,7 +1066,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Rechte verbindingslijn 24"/>
+        <xdr:cNvPr id="25" name="Rechte verbindingslijn 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1046,7 +1116,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25"/>
+        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1093,7 +1169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26"/>
+        <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1140,7 +1222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Rechte verbindingslijn met pijl 27"/>
+        <xdr:cNvPr id="28" name="Rechte verbindingslijn met pijl 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1192,7 +1280,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21"/>
+        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1239,7 +1333,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22"/>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1286,7 +1386,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Rechte verbindingslijn met pijl 24"/>
+        <xdr:cNvPr id="25" name="Rechte verbindingslijn met pijl 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1333,7 +1439,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25"/>
+        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1380,7 +1492,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26"/>
+        <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1427,7 +1545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Rechte verbindingslijn met pijl 28"/>
+        <xdr:cNvPr id="29" name="Rechte verbindingslijn met pijl 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1474,7 +1598,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Rechte verbindingslijn met pijl 29"/>
+        <xdr:cNvPr id="30" name="Rechte verbindingslijn met pijl 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1521,7 +1651,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Rechte verbindingslijn met pijl 30"/>
+        <xdr:cNvPr id="31" name="Rechte verbindingslijn met pijl 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1568,7 +1704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Rechte verbindingslijn 31"/>
+        <xdr:cNvPr id="32" name="Rechte verbindingslijn 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1612,7 +1754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Rechte verbindingslijn met pijl 32"/>
+        <xdr:cNvPr id="33" name="Rechte verbindingslijn met pijl 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1659,7 +1807,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Rechte verbindingslijn met pijl 33"/>
+        <xdr:cNvPr id="34" name="Rechte verbindingslijn met pijl 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1706,7 +1860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Rechte verbindingslijn met pijl 34"/>
+        <xdr:cNvPr id="35" name="Rechte verbindingslijn met pijl 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1753,7 +1913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Rechte verbindingslijn met pijl 41"/>
+        <xdr:cNvPr id="42" name="Rechte verbindingslijn met pijl 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1800,7 +1966,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Rechte verbindingslijn met pijl 42"/>
+        <xdr:cNvPr id="43" name="Rechte verbindingslijn met pijl 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1847,7 +2019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Rechte verbindingslijn 43"/>
+        <xdr:cNvPr id="44" name="Rechte verbindingslijn 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1891,7 +2069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Rechte verbindingslijn met pijl 44"/>
+        <xdr:cNvPr id="45" name="Rechte verbindingslijn met pijl 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1938,7 +2122,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Rechte verbindingslijn met pijl 45"/>
+        <xdr:cNvPr id="46" name="Rechte verbindingslijn met pijl 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1985,7 +2175,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Rechte verbindingslijn met pijl 46"/>
+        <xdr:cNvPr id="47" name="Rechte verbindingslijn met pijl 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2282,91 +2478,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2376,92 +2557,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2470,97 +2636,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2569,121 +2720,111 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2693,31 +2834,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="3"/>
@@ -2726,9 +2867,9 @@
       <c r="K3" s="1"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2743,91 +2884,85 @@
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="3"/>
@@ -2836,7 +2971,7 @@
       <c r="K21" s="1"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="G22" s="1"/>
       <c r="K22" s="1"/>
@@ -2849,54 +2984,54 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/KT2/KT2.1/KT2.1.2 Genormaliseerd Databaseontwerp/Genormaliseerde Databaseontwerp v1.0.0.xlsx
+++ b/KT2/KT2.1/KT2.1.2 Genormaliseerd Databaseontwerp/Genormaliseerde Databaseontwerp v1.0.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\_School\_Leerjaar 3\_KT123\Periode_11_Proef_PVB_Tim_Kenley\KT2\KT2.1\KT2.1.2 Genormaliseerd Databaseontwerp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE696ED-87A4-45DB-8D66-E2FCBC533017}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4632" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4632" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0e Normaalvorm" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -88,9 +89,6 @@
     <t>tbl_Users (R11)</t>
   </si>
   <si>
-    <t>tbl_q_regels (R31)</t>
-  </si>
-  <si>
     <t>tbl_FAQ'S (R41)</t>
   </si>
   <si>
@@ -113,6 +111,12 @@
   </si>
   <si>
     <t>•Image</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>••••Time</t>
   </si>
 </sst>
 </file>
@@ -157,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +184,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +210,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -215,432 +237,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>755431</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>755431</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1366345" y="768570"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1254672</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1254672</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Rechte verbindingslijn met pijl 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1865586" y="1057603"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1254672</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Rechte verbindingslijn 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1372914" y="1051034"/>
-          <a:ext cx="492672" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1254672</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1255986</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106417</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Rechte verbindingslijn met pijl 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1865586" y="1057603"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>218090</xdr:colOff>
+      <xdr:colOff>853965</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>218090</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Rechte verbindingslijn met pijl 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2372711" y="1525315"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1269124</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1269124</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>172107</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Rechte verbindingslijn met pijl 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1880038" y="1807779"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1269125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>218090</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Rechte verbindingslijn 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1880039" y="1807779"/>
-          <a:ext cx="492672" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1269124</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1270438</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>94593</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Rechte verbindingslijn met pijl 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1880038" y="1807779"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>853965</xdr:colOff>
-      <xdr:row>12</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>853965</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -686,67 +290,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1353206</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1353206</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Rechte verbindingslijn met pijl 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1964120" y="2581602"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>860534</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1287517</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -788,68 +339,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1353206</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1354520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106416</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Rechte verbindingslijn met pijl 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1964120" y="2581602"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1288830</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>99847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1288830</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>178675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -896,13 +394,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1288830</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>99847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1290144</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>101161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -947,68 +445,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>316624</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>316624</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>93277</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2471245" y="3049313"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1315107</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>106415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1315107</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>185243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1054,14 +499,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1315108</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
+      <xdr:colOff>1315109</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195551</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>99847</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1077,8 +522,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1926022" y="3337034"/>
-          <a:ext cx="2777357" cy="1313"/>
+          <a:off x="1924709" y="2476500"/>
+          <a:ext cx="3576931" cy="787"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1103,69 +548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1315107</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106415</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1316421</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107729</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1926021" y="3344915"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1191610</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1191610</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2626</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391510</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1180,8 +572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4699438" y="3352798"/>
-          <a:ext cx="0" cy="269328"/>
+          <a:off x="5489290" y="2476498"/>
+          <a:ext cx="0" cy="254088"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1209,16 +601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1191610</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1192924</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115612</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92752</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1233,8 +625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4699438" y="3352798"/>
-          <a:ext cx="1314" cy="191814"/>
+          <a:off x="5489290" y="2468878"/>
+          <a:ext cx="1314" cy="184194"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1268,332 +660,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>493494</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493494</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>110440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1100713" y="589976"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493863</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493863</xdr:colOff>
+      <xdr:colOff>427721</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1101082" y="867103"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493863</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495177</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106417</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Rechte verbindingslijn met pijl 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1101082" y="867103"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>491934</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>491934</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111138</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1099153" y="1352674"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>492837</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>105185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>492837</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184013</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1100056" y="1629185"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>492837</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>105185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>494151</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Rechte verbindingslijn met pijl 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1100056" y="1629185"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>427721</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>12522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>427721</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1639,67 +713,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>425709</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425709</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>183930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Rechte verbindingslijn met pijl 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1032928" y="2391102"/>
-          <a:ext cx="0" cy="269328"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>428337</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>98533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>426695</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>98534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1741,68 +762,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425709</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>427023</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106416</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Rechte verbindingslijn met pijl 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1032928" y="2391102"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428008</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>99847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428008</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>178675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1849,13 +817,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428008</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>99847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>429322</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>101161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1901,67 +869,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419386</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419386</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Rechte verbindingslijn met pijl 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1026605" y="2873594"/>
-          <a:ext cx="0" cy="282464"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>417374</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>102721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>417374</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>181549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2008,13 +923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>420002</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>96152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>418360</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>96153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2056,68 +971,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>417374</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>418688</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104035</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Rechte verbindingslijn met pijl 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1024593" y="3150721"/>
-          <a:ext cx="1314" cy="191814"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419673</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419673</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>176294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2164,13 +1026,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419673</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420987</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2479,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2522,12 +1384,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -2548,6 +1410,11 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2558,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2599,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2607,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,6 +1495,11 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2688,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2712,6 +1584,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2721,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2733,20 +1610,20 @@
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -2754,75 +1631,60 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2837,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2886,93 +1748,81 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K20" s="3"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
       <c r="G22" s="1"/>
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
@@ -2985,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,33 +1855,26 @@
       <c r="E3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
